--- a/Estadistica/Estadistica.xlsx
+++ b/Estadistica/Estadistica.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marta E\Documents\Actividades controladas\Ejecutar\Machine Learning\Notebooks\DocumentosNB05\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ADySO\Python\pythonTaks\Estadistica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD47B57-AA14-489B-A683-9F1765B8D6EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1883A7A7-6B36-4085-B9F3-5AC7A80B4ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cuantitativos_Discretos" sheetId="2" r:id="rId1"/>
@@ -26,6 +26,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -426,272 +435,589 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C94D23D-AB95-4893-B097-4F1C02A298E5}">
-  <dimension ref="A1:A51"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>31</v>
+      </c>
+      <c r="D2">
+        <f>MEDIAN(C2:C51)</f>
+        <v>38</v>
+      </c>
+      <c r="E2">
+        <f>MODE(C2:C51)</f>
+        <v>38</v>
+      </c>
+      <c r="F2">
+        <f>HARMEAN(C2:C51)</f>
+        <v>37.776559476226424</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>34</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>37</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>38</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>39</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>40</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>41</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>42</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>43</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>34</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>37</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>38</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>39</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>40</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>41</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>44</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>42</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>40</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>39</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>38</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>37</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>33</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>36</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>38</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>39</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>40</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>31</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>32</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>33</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="C32">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>33</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>35</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="C34">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>39</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B35">
+        <v>34</v>
+      </c>
+      <c r="C35">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>39</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B36">
+        <v>35</v>
+      </c>
+      <c r="C36">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>38</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B37">
+        <v>36</v>
+      </c>
+      <c r="C37">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B38">
+        <v>37</v>
+      </c>
+      <c r="C38">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>36</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B39">
+        <v>38</v>
+      </c>
+      <c r="C39">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>37</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B40">
+        <v>39</v>
+      </c>
+      <c r="C40">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>38</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B41">
+        <v>40</v>
+      </c>
+      <c r="C41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>39</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B42">
+        <v>41</v>
+      </c>
+      <c r="C42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>36</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B43">
+        <v>42</v>
+      </c>
+      <c r="C43">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>38</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B44">
+        <v>43</v>
+      </c>
+      <c r="C44">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>40</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B45">
+        <v>44</v>
+      </c>
+      <c r="C45">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>42</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B46">
+        <v>45</v>
+      </c>
+      <c r="C46">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>43</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B47">
+        <v>46</v>
+      </c>
+      <c r="C47">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>44</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B48">
+        <v>47</v>
+      </c>
+      <c r="C48">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>42</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B49">
+        <v>48</v>
+      </c>
+      <c r="C49">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>38</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B50">
+        <v>49</v>
+      </c>
+      <c r="C50">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>39</v>
+      </c>
+      <c r="B51">
+        <v>50</v>
+      </c>
+      <c r="C51">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:A51" xr:uid="{5C94D23D-AB95-4893-B097-4F1C02A298E5}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:C51">
+    <sortCondition ref="C2:C51"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
@@ -705,271 +1031,271 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>66.400000000000006</v>
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>65.7</v>
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>56.9</v>
       </c>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>70.8</v>
       </c>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>77.5</v>
       </c>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>80.5</v>
       </c>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>90.6</v>
       </c>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>89.5</v>
       </c>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>77.8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>79.599999999999994</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>80.3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>80.3</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>67.900000000000006</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>72.3</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>74.5</v>
       </c>
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>80.5</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>89.6</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>78.900000000000006</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>89.2</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>74.599999999999994</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>82.4</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>83.9</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>80.3</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>66.900000000000006</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>74.599999999999994</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>69.599999999999994</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>88.9</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>84.3</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>66.099999999999994</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>84.9</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>74.900000000000006</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>72.599999999999994</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>67.8</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>72.099999999999994</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>75.2</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>70.3</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>76.5</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>88.9</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>75.400000000000006</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>79.599999999999994</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>83.2</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>77.099999999999994</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>89.5</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>76.3</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>77.5</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>79.2</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>70.900000000000006</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>74.8</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>87.5</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>86.5</v>
       </c>
@@ -988,262 +1314,262 @@
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -1257,21 +1583,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5E710EF-EDFA-4C85-9C9B-6A27FE0FD284}">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="C41" sqref="C41:C52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>31</v>
       </c>
@@ -1282,7 +1608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>32</v>
       </c>
@@ -1293,7 +1619,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>33</v>
       </c>
@@ -1304,7 +1630,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>33</v>
       </c>
@@ -1315,7 +1641,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>33</v>
       </c>
@@ -1330,7 +1656,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>33</v>
       </c>
@@ -1341,7 +1667,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>34</v>
       </c>
@@ -1352,7 +1678,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>34</v>
       </c>
@@ -1363,7 +1689,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>35</v>
       </c>
@@ -1374,7 +1700,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>35</v>
       </c>
@@ -1385,7 +1711,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>36</v>
       </c>
@@ -1396,7 +1722,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>36</v>
       </c>
@@ -1407,7 +1733,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>36</v>
       </c>
@@ -1415,7 +1741,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>36</v>
       </c>
@@ -1426,7 +1752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>37</v>
       </c>
@@ -1437,7 +1763,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>37</v>
       </c>
@@ -1448,7 +1774,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>37</v>
       </c>
@@ -1459,7 +1785,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>37</v>
       </c>
@@ -1470,7 +1796,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>37</v>
       </c>
@@ -1481,7 +1807,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>38</v>
       </c>
@@ -1492,7 +1818,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>38</v>
       </c>
@@ -1503,7 +1829,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>38</v>
       </c>
@@ -1514,7 +1840,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>38</v>
       </c>
@@ -1525,7 +1851,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>38</v>
       </c>
@@ -1536,7 +1862,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>38</v>
       </c>
@@ -1547,7 +1873,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>38</v>
       </c>
@@ -1555,7 +1881,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>38</v>
       </c>
@@ -1566,7 +1892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>39</v>
       </c>
@@ -1577,7 +1903,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>39</v>
       </c>
@@ -1588,7 +1914,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>39</v>
       </c>
@@ -1599,7 +1925,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>39</v>
       </c>
@@ -1610,7 +1936,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>39</v>
       </c>
@@ -1621,7 +1947,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>39</v>
       </c>
@@ -1632,7 +1958,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>39</v>
       </c>
@@ -1643,7 +1969,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>39</v>
       </c>
@@ -1654,7 +1980,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>40</v>
       </c>
@@ -1665,7 +1991,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>40</v>
       </c>
@@ -1676,7 +2002,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>40</v>
       </c>
@@ -1687,7 +2013,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>40</v>
       </c>
@@ -1695,7 +2021,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>40</v>
       </c>
@@ -1706,7 +2032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>41</v>
       </c>
@@ -1717,7 +2043,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>41</v>
       </c>
@@ -1728,7 +2054,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
         <v>42</v>
       </c>
@@ -1739,7 +2065,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
         <v>42</v>
       </c>
@@ -1750,7 +2076,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
         <v>42</v>
       </c>
@@ -1761,7 +2087,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
         <v>42</v>
       </c>
@@ -1772,7 +2098,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
         <v>43</v>
       </c>
@@ -1783,7 +2109,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <v>43</v>
       </c>
@@ -1794,7 +2120,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="7">
         <v>44</v>
       </c>
@@ -1805,7 +2131,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="7">
         <v>44</v>
       </c>
@@ -1816,7 +2142,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C52">
         <v>12</v>
       </c>
